--- a/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_80.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_14_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>88.94716940301582</v>
+        <v>88.12136864722999</v>
       </c>
       <c r="D2" t="n">
-        <v>28.49495859041827</v>
+        <v>26.17058194509734</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>90.65881480903523</v>
+        <v>91.06463029800568</v>
       </c>
       <c r="D3" t="n">
-        <v>27.91925208599666</v>
+        <v>25.72850483400767</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>93.9399462650547</v>
+        <v>89.97040674793901</v>
       </c>
       <c r="D4" t="n">
-        <v>30.3550933069231</v>
+        <v>24.45839344976698</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.73366710862098</v>
+        <v>90.62286709950186</v>
       </c>
       <c r="D5" t="n">
-        <v>26.92190399263983</v>
+        <v>25.44495267662171</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.64982796764397</v>
+        <v>88.65464835920406</v>
       </c>
       <c r="D6" t="n">
-        <v>25.95459239588497</v>
+        <v>25.8504391909012</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>91.74174020186084</v>
+        <v>86.13844124518074</v>
       </c>
       <c r="D7" t="n">
-        <v>27.57574551457948</v>
+        <v>25.49326048066104</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>81.94376104472018</v>
+        <v>88.45872900626446</v>
       </c>
       <c r="D8" t="n">
-        <v>27.04822851689759</v>
+        <v>27.98596014385581</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.17714631413359</v>
+        <v>84.84152763402096</v>
       </c>
       <c r="D9" t="n">
-        <v>30.08288533075772</v>
+        <v>26.20599206858014</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.01349053863363</v>
+        <v>82.91310837393686</v>
       </c>
       <c r="D10" t="n">
-        <v>26.27428279396419</v>
+        <v>27.22511877048137</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.49640341071536</v>
+        <v>82.62885687040749</v>
       </c>
       <c r="D11" t="n">
-        <v>26.79225912943212</v>
+        <v>26.32838248814383</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.5786357930083</v>
+        <v>78.97157858307065</v>
       </c>
       <c r="D12" t="n">
-        <v>30.36613213149231</v>
+        <v>28.63273654719595</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>83.59839140279533</v>
+        <v>82.1179264775505</v>
       </c>
       <c r="D13" t="n">
-        <v>25.96760732202139</v>
+        <v>23.36888442829615</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>79.66190664188666</v>
+        <v>80.39779908387507</v>
       </c>
       <c r="D14" t="n">
-        <v>28.55822671873158</v>
+        <v>26.40551042786211</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>81.22354908647515</v>
+        <v>77.13086160495278</v>
       </c>
       <c r="D15" t="n">
-        <v>26.60032942865073</v>
+        <v>22.72565476754287</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.58965223615496</v>
+        <v>78.95064720886485</v>
       </c>
       <c r="D16" t="n">
-        <v>24.79659305364224</v>
+        <v>26.6145949217694</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.05358121306845</v>
+        <v>78.06848261496711</v>
       </c>
       <c r="D17" t="n">
-        <v>23.64746600477871</v>
+        <v>23.68823535667907</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.18791351205591</v>
+        <v>72.11881419091246</v>
       </c>
       <c r="D18" t="n">
-        <v>29.30691765247408</v>
+        <v>25.90576793477369</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>77.86224470390556</v>
+        <v>68.6348859257532</v>
       </c>
       <c r="D19" t="n">
-        <v>27.67898634007482</v>
+        <v>21.59420296010689</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>76.57467177305195</v>
+        <v>71.7787062652976</v>
       </c>
       <c r="D20" t="n">
-        <v>26.55321072144604</v>
+        <v>27.29272176537211</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.19139689208137</v>
+        <v>72.5981884687376</v>
       </c>
       <c r="D21" t="n">
-        <v>25.57857206320181</v>
+        <v>26.59632913614358</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>75.96284495358522</v>
+        <v>71.46372460802034</v>
       </c>
       <c r="D22" t="n">
-        <v>27.00167037883717</v>
+        <v>23.72370634983169</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>66.42623701394635</v>
+        <v>73.57425726459195</v>
       </c>
       <c r="D23" t="n">
-        <v>29.9306198131883</v>
+        <v>23.86642713615303</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.26553989229346</v>
+        <v>66.28551161633195</v>
       </c>
       <c r="D24" t="n">
-        <v>29.37582240890837</v>
+        <v>25.02740852045391</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.14795153183363</v>
+        <v>69.61245034094502</v>
       </c>
       <c r="D25" t="n">
-        <v>32.7840094560522</v>
+        <v>26.88880952403448</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.66947383013968</v>
+        <v>62.62115378833436</v>
       </c>
       <c r="D26" t="n">
-        <v>25.39192153721316</v>
+        <v>25.4642402774793</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.1554872000245</v>
+        <v>67.98446183480289</v>
       </c>
       <c r="D27" t="n">
-        <v>26.57517058019478</v>
+        <v>29.60592826099968</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>67.40228729433277</v>
+        <v>64.56717885706584</v>
       </c>
       <c r="D28" t="n">
-        <v>27.30420617388324</v>
+        <v>24.61042313625105</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>66.90559214905731</v>
+        <v>56.93679764438762</v>
       </c>
       <c r="D29" t="n">
-        <v>25.57376906221326</v>
+        <v>28.45593061172801</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.64059066998291</v>
+        <v>60.48037310150279</v>
       </c>
       <c r="D30" t="n">
-        <v>25.80946827554427</v>
+        <v>24.74592827948451</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.6406885888164</v>
+        <v>66.22648871210372</v>
       </c>
       <c r="D31" t="n">
-        <v>26.87080343947659</v>
+        <v>24.99838885465054</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.99264156948387</v>
+        <v>58.323280359453</v>
       </c>
       <c r="D32" t="n">
-        <v>26.16249755912623</v>
+        <v>26.07335714223209</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>65.93184580454482</v>
+        <v>58.01549520823186</v>
       </c>
       <c r="D33" t="n">
-        <v>29.48886735998469</v>
+        <v>29.65315651974254</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>63.32757942437767</v>
+        <v>56.7210235122954</v>
       </c>
       <c r="D34" t="n">
-        <v>28.16280724554524</v>
+        <v>26.02414303933157</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.45157365045112</v>
+        <v>51.50886424530334</v>
       </c>
       <c r="D35" t="n">
-        <v>23.21924504619934</v>
+        <v>25.9524327210795</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>51.07067843181407</v>
+        <v>56.70140236402585</v>
       </c>
       <c r="D36" t="n">
-        <v>23.45425866750874</v>
+        <v>26.04934348481404</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.94480070259898</v>
+        <v>54.59259889959041</v>
       </c>
       <c r="D37" t="n">
-        <v>27.41216989110479</v>
+        <v>28.06319142734358</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.57852208256525</v>
+        <v>51.2810268937133</v>
       </c>
       <c r="D38" t="n">
-        <v>29.53877213829477</v>
+        <v>27.2381203940016</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.24363879462543</v>
+        <v>52.79390800001014</v>
       </c>
       <c r="D39" t="n">
-        <v>25.06610844982085</v>
+        <v>24.24885540247501</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.1424782553476</v>
+        <v>55.36817657733918</v>
       </c>
       <c r="D40" t="n">
-        <v>25.64449168761994</v>
+        <v>24.13830162781332</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>49.20170192481874</v>
+        <v>54.31562998893328</v>
       </c>
       <c r="D41" t="n">
-        <v>21.97747709779776</v>
+        <v>24.37431082973301</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.06919791634414</v>
+        <v>54.1896611417524</v>
       </c>
       <c r="D42" t="n">
-        <v>30.17868115564259</v>
+        <v>25.07950432572072</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>54.38962639780452</v>
+        <v>49.37547292539264</v>
       </c>
       <c r="D43" t="n">
-        <v>25.92273552467266</v>
+        <v>28.57620153399962</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.20498505290677</v>
+        <v>47.82919570182256</v>
       </c>
       <c r="D44" t="n">
-        <v>26.43245052617528</v>
+        <v>23.92704044390886</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.43817082106928</v>
+        <v>49.82197756572327</v>
       </c>
       <c r="D45" t="n">
-        <v>27.38342726536273</v>
+        <v>24.81909205147642</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>41.02149547549828</v>
+        <v>47.65043737116321</v>
       </c>
       <c r="D46" t="n">
-        <v>25.22902430000347</v>
+        <v>24.9232678792519</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.59072609406367</v>
+        <v>42.4582572786906</v>
       </c>
       <c r="D47" t="n">
-        <v>29.42837855999997</v>
+        <v>26.26153509297443</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.69899170627575</v>
+        <v>40.63926610337361</v>
       </c>
       <c r="D48" t="n">
-        <v>26.23540124132078</v>
+        <v>24.15164472573687</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.15792383311694</v>
+        <v>44.50692770666762</v>
       </c>
       <c r="D49" t="n">
-        <v>26.09674533764068</v>
+        <v>25.92555298186234</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.26580858625965</v>
+        <v>44.97196946621695</v>
       </c>
       <c r="D50" t="n">
-        <v>21.90443396604116</v>
+        <v>26.50248765094701</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>37.50759364931778</v>
+        <v>40.25087162425664</v>
       </c>
       <c r="D51" t="n">
-        <v>26.14900244529585</v>
+        <v>23.23036556503828</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>38.49019163681798</v>
+        <v>37.10100182920742</v>
       </c>
       <c r="D52" t="n">
-        <v>24.01368430562745</v>
+        <v>26.33663158422985</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>42.62942786127488</v>
+        <v>39.80263952757086</v>
       </c>
       <c r="D53" t="n">
-        <v>27.20399591612023</v>
+        <v>29.82519700626135</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.0779089519711</v>
+        <v>40.31017846459848</v>
       </c>
       <c r="D54" t="n">
-        <v>24.0176943895021</v>
+        <v>26.20766392163154</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.32070786384085</v>
+        <v>37.32424305634915</v>
       </c>
       <c r="D55" t="n">
-        <v>25.72909107035589</v>
+        <v>27.67453354843439</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>33.04888744367813</v>
+        <v>33.44918678424398</v>
       </c>
       <c r="D56" t="n">
-        <v>25.63284507928182</v>
+        <v>28.78671895274522</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.58718482123477</v>
+        <v>35.82773821734273</v>
       </c>
       <c r="D57" t="n">
-        <v>24.46793220927331</v>
+        <v>27.04660779347597</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>37.91673667302315</v>
+        <v>32.57581995171606</v>
       </c>
       <c r="D58" t="n">
-        <v>25.87269467274015</v>
+        <v>23.48977165802936</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.05468421291883</v>
+        <v>30.47087382081366</v>
       </c>
       <c r="D59" t="n">
-        <v>27.28400002053995</v>
+        <v>25.59245391770531</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>28.90529584050097</v>
+        <v>31.89340852974398</v>
       </c>
       <c r="D60" t="n">
-        <v>27.15696699940744</v>
+        <v>26.74641397148952</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>34.10094959491234</v>
+        <v>35.03356084732079</v>
       </c>
       <c r="D61" t="n">
-        <v>25.54270051649301</v>
+        <v>27.01744926235819</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>26.30526410559514</v>
+        <v>27.2458234786472</v>
       </c>
       <c r="D62" t="n">
-        <v>25.97971749715476</v>
+        <v>26.30287270928902</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.9628942489878</v>
+        <v>29.93182572333419</v>
       </c>
       <c r="D63" t="n">
-        <v>27.95787908512105</v>
+        <v>27.07968499469171</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.38598497427268</v>
+        <v>30.12735974521099</v>
       </c>
       <c r="D64" t="n">
-        <v>25.89306512710604</v>
+        <v>27.20939700251978</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>32.33791362591079</v>
+        <v>28.07261600741582</v>
       </c>
       <c r="D65" t="n">
-        <v>24.75004740014873</v>
+        <v>25.21041289994438</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.29022019659489</v>
+        <v>31.90735998940355</v>
       </c>
       <c r="D66" t="n">
-        <v>25.90192469537175</v>
+        <v>25.09441626396133</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>22.48590747566983</v>
+        <v>24.94953114548722</v>
       </c>
       <c r="D67" t="n">
-        <v>24.05799343838897</v>
+        <v>24.02867941602194</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.21546185457375</v>
+        <v>27.02552796610115</v>
       </c>
       <c r="D68" t="n">
-        <v>23.01005765692445</v>
+        <v>25.61173972065092</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>27.23440032831686</v>
+        <v>22.21824593077945</v>
       </c>
       <c r="D69" t="n">
-        <v>26.28373489028783</v>
+        <v>28.36040464742645</v>
       </c>
     </row>
   </sheetData>
